--- a/presence_absence_report.xlsx
+++ b/presence_absence_report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\R\VolMon\RBV Metrics_2023\markdownreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1097BA2E-3103-4843-A322-6BB944C3822A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A66F6B-0B0D-4819-B1A8-1E6B43918C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="1560" windowWidth="29040" windowHeight="15840" xr2:uid="{F2BBEE9A-7C13-4250-BCB1-992A9DAE4722}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="10044" xr2:uid="{F2BBEE9A-7C13-4250-BCB1-992A9DAE4722}"/>
   </bookViews>
   <sheets>
     <sheet name="presence_absence_report" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="108">
   <si>
     <t>Station ID</t>
   </si>
@@ -341,6 +341,9 @@
   </si>
   <si>
     <t>WMS</t>
+  </si>
+  <si>
+    <t>8MILE</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1053,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1059,7 +1062,7 @@
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1077,14 +1080,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1479,7 +1481,7 @@
   <dimension ref="B2:AK62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1638,7 +1640,7 @@
       <c r="Q3" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="R3" s="23"/>
+      <c r="R3" s="22"/>
       <c r="S3" s="11">
         <v>9</v>
       </c>
@@ -1721,11 +1723,11 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
-      <c r="Q4" s="24"/>
+      <c r="Q4" s="23"/>
       <c r="R4" s="4">
         <v>0</v>
       </c>
-      <c r="S4" s="25" t="s">
+      <c r="S4" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T4" s="5" t="s">
@@ -1779,11 +1781,11 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
-      <c r="Q5" s="24"/>
+      <c r="Q5" s="23"/>
       <c r="R5" s="4">
         <v>1</v>
       </c>
-      <c r="S5" s="25" t="s">
+      <c r="S5" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T5" s="5" t="s">
@@ -1837,11 +1839,11 @@
       <c r="P6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" s="24"/>
+      <c r="Q6" s="23"/>
       <c r="R6" s="4">
         <v>3</v>
       </c>
-      <c r="S6" s="25" t="s">
+      <c r="S6" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T6" s="5" t="s">
@@ -1911,11 +1913,11 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="24"/>
+      <c r="Q7" s="23"/>
       <c r="R7" s="4">
         <v>5</v>
       </c>
-      <c r="S7" s="25" t="s">
+      <c r="S7" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T7" s="5" t="s">
@@ -1961,7 +1963,7 @@
         <v>17992</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E8" s="6">
         <v>45175</v>
@@ -1981,11 +1983,11 @@
         <v>33</v>
       </c>
       <c r="P8" s="5"/>
-      <c r="Q8" s="24"/>
+      <c r="Q8" s="23"/>
       <c r="R8" s="4">
         <v>2</v>
       </c>
-      <c r="S8" s="25" t="s">
+      <c r="S8" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T8" s="5" t="s">
@@ -2049,11 +2051,11 @@
         <v>33</v>
       </c>
       <c r="P9" s="5"/>
-      <c r="Q9" s="24"/>
+      <c r="Q9" s="23"/>
       <c r="R9" s="4">
         <v>4</v>
       </c>
-      <c r="S9" s="25" t="s">
+      <c r="S9" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T9" s="5" t="s">
@@ -2117,11 +2119,11 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="24"/>
+      <c r="Q10" s="23"/>
       <c r="R10" s="4">
         <v>3</v>
       </c>
-      <c r="S10" s="25" t="s">
+      <c r="S10" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T10" s="5" t="s">
@@ -2183,11 +2185,11 @@
         <v>33</v>
       </c>
       <c r="P11" s="5"/>
-      <c r="Q11" s="24"/>
+      <c r="Q11" s="23"/>
       <c r="R11" s="4">
         <v>2</v>
       </c>
-      <c r="S11" s="25" t="s">
+      <c r="S11" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T11" s="5" t="s">
@@ -2247,11 +2249,11 @@
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
-      <c r="Q12" s="24"/>
+      <c r="Q12" s="23"/>
       <c r="R12" s="4">
         <v>0</v>
       </c>
-      <c r="S12" s="25" t="s">
+      <c r="S12" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T12" s="5" t="s">
@@ -2307,11 +2309,11 @@
         <v>33</v>
       </c>
       <c r="P13" s="5"/>
-      <c r="Q13" s="24"/>
+      <c r="Q13" s="23"/>
       <c r="R13" s="4">
         <v>2</v>
       </c>
-      <c r="S13" s="25"/>
+      <c r="S13" s="24"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5" t="s">
@@ -2367,11 +2369,11 @@
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
-      <c r="Q14" s="24"/>
+      <c r="Q14" s="23"/>
       <c r="R14" s="4">
         <v>4</v>
       </c>
-      <c r="S14" s="25" t="s">
+      <c r="S14" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T14" s="5" t="s">
@@ -2435,11 +2437,11 @@
         <v>33</v>
       </c>
       <c r="P15" s="5"/>
-      <c r="Q15" s="24"/>
+      <c r="Q15" s="23"/>
       <c r="R15" s="4">
         <v>4</v>
       </c>
-      <c r="S15" s="25" t="s">
+      <c r="S15" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T15" s="5"/>
@@ -2499,11 +2501,11 @@
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
-      <c r="Q16" s="24"/>
+      <c r="Q16" s="23"/>
       <c r="R16" s="4">
         <v>2</v>
       </c>
-      <c r="S16" s="25" t="s">
+      <c r="S16" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T16" s="5" t="s">
@@ -2569,11 +2571,11 @@
         <v>33</v>
       </c>
       <c r="P17" s="5"/>
-      <c r="Q17" s="24"/>
+      <c r="Q17" s="23"/>
       <c r="R17" s="4">
         <v>4</v>
       </c>
-      <c r="S17" s="25" t="s">
+      <c r="S17" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T17" s="5" t="s">
@@ -2635,11 +2637,11 @@
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
-      <c r="Q18" s="24"/>
+      <c r="Q18" s="23"/>
       <c r="R18" s="4">
         <v>0</v>
       </c>
-      <c r="S18" s="25" t="s">
+      <c r="S18" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T18" s="5" t="s">
@@ -2705,11 +2707,11 @@
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
-      <c r="Q19" s="24"/>
+      <c r="Q19" s="23"/>
       <c r="R19" s="4">
         <v>3</v>
       </c>
-      <c r="S19" s="25"/>
+      <c r="S19" s="24"/>
       <c r="T19" s="5" t="s">
         <v>33</v>
       </c>
@@ -2779,11 +2781,11 @@
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
-      <c r="Q20" s="24"/>
+      <c r="Q20" s="23"/>
       <c r="R20" s="4">
         <v>3</v>
       </c>
-      <c r="S20" s="25" t="s">
+      <c r="S20" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T20" s="5"/>
@@ -2857,11 +2859,11 @@
         <v>33</v>
       </c>
       <c r="P21" s="5"/>
-      <c r="Q21" s="24"/>
+      <c r="Q21" s="23"/>
       <c r="R21" s="4">
         <v>5</v>
       </c>
-      <c r="S21" s="25" t="s">
+      <c r="S21" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T21" s="5" t="s">
@@ -2935,11 +2937,11 @@
         <v>33</v>
       </c>
       <c r="P22" s="5"/>
-      <c r="Q22" s="24"/>
+      <c r="Q22" s="23"/>
       <c r="R22" s="4">
         <v>7</v>
       </c>
-      <c r="S22" s="25" t="s">
+      <c r="S22" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T22" s="5" t="s">
@@ -3011,11 +3013,11 @@
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
-      <c r="Q23" s="24"/>
+      <c r="Q23" s="23"/>
       <c r="R23" s="4">
         <v>4</v>
       </c>
-      <c r="S23" s="25" t="s">
+      <c r="S23" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T23" s="5" t="s">
@@ -3087,11 +3089,11 @@
       <c r="P24" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q24" s="24"/>
+      <c r="Q24" s="23"/>
       <c r="R24" s="4">
         <v>4</v>
       </c>
-      <c r="S24" s="25" t="s">
+      <c r="S24" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T24" s="5" t="s">
@@ -3157,11 +3159,11 @@
       <c r="P25" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q25" s="24"/>
+      <c r="Q25" s="23"/>
       <c r="R25" s="4">
         <v>2</v>
       </c>
-      <c r="S25" s="25" t="s">
+      <c r="S25" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T25" s="5" t="s">
@@ -3223,11 +3225,11 @@
         <v>33</v>
       </c>
       <c r="P26" s="5"/>
-      <c r="Q26" s="24"/>
+      <c r="Q26" s="23"/>
       <c r="R26" s="4">
         <v>4</v>
       </c>
-      <c r="S26" s="25" t="s">
+      <c r="S26" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T26" s="5"/>
@@ -3283,11 +3285,11 @@
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
-      <c r="Q27" s="24"/>
+      <c r="Q27" s="23"/>
       <c r="R27" s="4">
         <v>2</v>
       </c>
-      <c r="S27" s="25" t="s">
+      <c r="S27" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T27" s="5"/>
@@ -3343,11 +3345,11 @@
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
-      <c r="Q28" s="24"/>
+      <c r="Q28" s="23"/>
       <c r="R28" s="4">
         <v>0</v>
       </c>
-      <c r="S28" s="25" t="s">
+      <c r="S28" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T28" s="5"/>
@@ -3403,11 +3405,11 @@
         <v>33</v>
       </c>
       <c r="P29" s="5"/>
-      <c r="Q29" s="24"/>
+      <c r="Q29" s="23"/>
       <c r="R29" s="4">
         <v>4</v>
       </c>
-      <c r="S29" s="25" t="s">
+      <c r="S29" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T29" s="5" t="s">
@@ -3479,11 +3481,11 @@
       <c r="P30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q30" s="24"/>
+      <c r="Q30" s="23"/>
       <c r="R30" s="4">
         <v>6</v>
       </c>
-      <c r="S30" s="25" t="s">
+      <c r="S30" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T30" s="5" t="s">
@@ -3514,7 +3516,7 @@
       <c r="AK30" s="14"/>
     </row>
     <row r="31" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C31" s="5">
@@ -3543,11 +3545,11 @@
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
-      <c r="Q31" s="24"/>
+      <c r="Q31" s="23"/>
       <c r="R31" s="4">
         <v>3</v>
       </c>
-      <c r="S31" s="25" t="s">
+      <c r="S31" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T31" s="5" t="s">
@@ -3617,11 +3619,11 @@
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
-      <c r="Q32" s="24"/>
+      <c r="Q32" s="23"/>
       <c r="R32" s="4">
         <v>4</v>
       </c>
-      <c r="S32" s="25" t="s">
+      <c r="S32" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T32" s="5" t="s">
@@ -3687,11 +3689,11 @@
         <v>33</v>
       </c>
       <c r="P33" s="5"/>
-      <c r="Q33" s="24"/>
+      <c r="Q33" s="23"/>
       <c r="R33" s="4">
         <v>3</v>
       </c>
-      <c r="S33" s="25"/>
+      <c r="S33" s="24"/>
       <c r="T33" s="5" t="s">
         <v>33</v>
       </c>
@@ -3724,7 +3726,7 @@
       <c r="AK33" s="14"/>
     </row>
     <row r="34" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="13" t="s">
         <v>57</v>
       </c>
       <c r="C34" s="5">
@@ -3751,11 +3753,11 @@
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
-      <c r="Q34" s="24"/>
+      <c r="Q34" s="23"/>
       <c r="R34" s="4">
         <v>2</v>
       </c>
-      <c r="S34" s="25" t="s">
+      <c r="S34" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T34" s="5" t="s">
@@ -3827,11 +3829,11 @@
         <v>33</v>
       </c>
       <c r="P35" s="5"/>
-      <c r="Q35" s="24"/>
+      <c r="Q35" s="23"/>
       <c r="R35" s="4">
         <v>8</v>
       </c>
-      <c r="S35" s="25" t="s">
+      <c r="S35" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T35" s="5" t="s">
@@ -3897,11 +3899,11 @@
       <c r="P36" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q36" s="24"/>
+      <c r="Q36" s="23"/>
       <c r="R36" s="4">
         <v>2</v>
       </c>
-      <c r="S36" s="25" t="s">
+      <c r="S36" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T36" s="5" t="s">
@@ -3975,11 +3977,11 @@
       <c r="P37" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q37" s="24"/>
+      <c r="Q37" s="23"/>
       <c r="R37" s="4">
         <v>3</v>
       </c>
-      <c r="S37" s="25" t="s">
+      <c r="S37" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T37" s="5" t="s">
@@ -4053,11 +4055,11 @@
       <c r="P38" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q38" s="24"/>
+      <c r="Q38" s="23"/>
       <c r="R38" s="4">
         <v>4</v>
       </c>
-      <c r="S38" s="25" t="s">
+      <c r="S38" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T38" s="5" t="s">
@@ -4127,11 +4129,11 @@
         <v>33</v>
       </c>
       <c r="P39" s="5"/>
-      <c r="Q39" s="24"/>
+      <c r="Q39" s="23"/>
       <c r="R39" s="4">
         <v>4</v>
       </c>
-      <c r="S39" s="25" t="s">
+      <c r="S39" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T39" s="5" t="s">
@@ -4195,11 +4197,11 @@
         <v>33</v>
       </c>
       <c r="P40" s="5"/>
-      <c r="Q40" s="24"/>
+      <c r="Q40" s="23"/>
       <c r="R40" s="4">
         <v>3</v>
       </c>
-      <c r="S40" s="25" t="s">
+      <c r="S40" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T40" s="5"/>
@@ -4263,11 +4265,11 @@
         <v>33</v>
       </c>
       <c r="P41" s="5"/>
-      <c r="Q41" s="24"/>
+      <c r="Q41" s="23"/>
       <c r="R41" s="4">
         <v>5</v>
       </c>
-      <c r="S41" s="25" t="s">
+      <c r="S41" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T41" s="5" t="s">
@@ -4335,11 +4337,11 @@
         <v>33</v>
       </c>
       <c r="P42" s="5"/>
-      <c r="Q42" s="24"/>
+      <c r="Q42" s="23"/>
       <c r="R42" s="4">
         <v>4</v>
       </c>
-      <c r="S42" s="25" t="s">
+      <c r="S42" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T42" s="5" t="s">
@@ -4403,11 +4405,11 @@
         <v>33</v>
       </c>
       <c r="P43" s="5"/>
-      <c r="Q43" s="24"/>
+      <c r="Q43" s="23"/>
       <c r="R43" s="4">
         <v>5</v>
       </c>
-      <c r="S43" s="25" t="s">
+      <c r="S43" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T43" s="5" t="s">
@@ -4463,11 +4465,11 @@
         <v>33</v>
       </c>
       <c r="P44" s="5"/>
-      <c r="Q44" s="24"/>
+      <c r="Q44" s="23"/>
       <c r="R44" s="4">
         <v>2</v>
       </c>
-      <c r="S44" s="25"/>
+      <c r="S44" s="24"/>
       <c r="T44" s="5"/>
       <c r="U44" s="5" t="s">
         <v>33</v>
@@ -4525,11 +4527,11 @@
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
-      <c r="Q45" s="24"/>
+      <c r="Q45" s="23"/>
       <c r="R45" s="4">
         <v>2</v>
       </c>
-      <c r="S45" s="25" t="s">
+      <c r="S45" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T45" s="5" t="s">
@@ -4599,11 +4601,11 @@
       <c r="P46" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q46" s="24"/>
+      <c r="Q46" s="23"/>
       <c r="R46" s="4">
         <v>5</v>
       </c>
-      <c r="S46" s="25" t="s">
+      <c r="S46" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T46" s="5" t="s">
@@ -4665,11 +4667,11 @@
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
-      <c r="Q47" s="24"/>
+      <c r="Q47" s="23"/>
       <c r="R47" s="4">
         <v>2</v>
       </c>
-      <c r="S47" s="25" t="s">
+      <c r="S47" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T47" s="5" t="s">
@@ -4739,11 +4741,11 @@
       <c r="P48" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q48" s="24"/>
+      <c r="Q48" s="23"/>
       <c r="R48" s="4">
         <v>7</v>
       </c>
-      <c r="S48" s="25" t="s">
+      <c r="S48" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T48" s="5" t="s">
@@ -4821,11 +4823,11 @@
         <v>33</v>
       </c>
       <c r="P49" s="5"/>
-      <c r="Q49" s="24"/>
+      <c r="Q49" s="23"/>
       <c r="R49" s="4">
         <v>5</v>
       </c>
-      <c r="S49" s="25" t="s">
+      <c r="S49" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T49" s="5" t="s">
@@ -4895,11 +4897,11 @@
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
-      <c r="Q50" s="24"/>
+      <c r="Q50" s="23"/>
       <c r="R50" s="4">
         <v>4</v>
       </c>
-      <c r="S50" s="25" t="s">
+      <c r="S50" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T50" s="5" t="s">
@@ -4967,11 +4969,11 @@
         <v>33</v>
       </c>
       <c r="P51" s="5"/>
-      <c r="Q51" s="24"/>
+      <c r="Q51" s="23"/>
       <c r="R51" s="4">
         <v>4</v>
       </c>
-      <c r="S51" s="25" t="s">
+      <c r="S51" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T51" s="5" t="s">
@@ -5037,11 +5039,11 @@
         <v>33</v>
       </c>
       <c r="P52" s="5"/>
-      <c r="Q52" s="24"/>
+      <c r="Q52" s="23"/>
       <c r="R52" s="4">
         <v>3</v>
       </c>
-      <c r="S52" s="25" t="s">
+      <c r="S52" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T52" s="5" t="s">
@@ -5103,11 +5105,11 @@
       <c r="P53" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q53" s="24"/>
+      <c r="Q53" s="23"/>
       <c r="R53" s="4">
         <v>3</v>
       </c>
-      <c r="S53" s="25" t="s">
+      <c r="S53" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T53" s="5" t="s">
@@ -5173,11 +5175,11 @@
       <c r="P54" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q54" s="24"/>
+      <c r="Q54" s="23"/>
       <c r="R54" s="4">
         <v>5</v>
       </c>
-      <c r="S54" s="25" t="s">
+      <c r="S54" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T54" s="5" t="s">
@@ -5247,11 +5249,11 @@
         <v>33</v>
       </c>
       <c r="P55" s="5"/>
-      <c r="Q55" s="24"/>
+      <c r="Q55" s="23"/>
       <c r="R55" s="4">
         <v>3</v>
       </c>
-      <c r="S55" s="25" t="s">
+      <c r="S55" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T55" s="5" t="s">
@@ -5313,11 +5315,11 @@
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
       <c r="P56" s="5"/>
-      <c r="Q56" s="24"/>
+      <c r="Q56" s="23"/>
       <c r="R56" s="4">
         <v>1</v>
       </c>
-      <c r="S56" s="25" t="s">
+      <c r="S56" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T56" s="5" t="s">
@@ -5350,7 +5352,7 @@
       <c r="AK56" s="14"/>
     </row>
     <row r="57" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="16" t="s">
         <v>77</v>
       </c>
       <c r="C57" s="7">
@@ -5388,7 +5390,7 @@
       <c r="Q57" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="R57" s="26">
+      <c r="R57" s="25">
         <v>10</v>
       </c>
       <c r="S57" s="7" t="s">
@@ -5423,7 +5425,7 @@
         <v>33</v>
       </c>
       <c r="AJ57" s="7"/>
-      <c r="AK57" s="18"/>
+      <c r="AK57" s="17"/>
     </row>
     <row r="58" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B58" s="15" t="s">
@@ -5457,11 +5459,11 @@
       <c r="P58" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q58" s="24"/>
+      <c r="Q58" s="23"/>
       <c r="R58" s="4">
         <v>4</v>
       </c>
-      <c r="S58" s="25" t="s">
+      <c r="S58" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T58" s="5" t="s">
@@ -5533,11 +5535,11 @@
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
       <c r="P59" s="5"/>
-      <c r="Q59" s="24"/>
+      <c r="Q59" s="23"/>
       <c r="R59" s="4">
         <v>4</v>
       </c>
-      <c r="S59" s="25" t="s">
+      <c r="S59" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T59" s="5" t="s">
@@ -5601,13 +5603,13 @@
         <v>33</v>
       </c>
       <c r="P60" s="5"/>
-      <c r="Q60" s="24" t="s">
+      <c r="Q60" s="23" t="s">
         <v>33</v>
       </c>
       <c r="R60" s="4">
         <v>9</v>
       </c>
-      <c r="S60" s="25" t="s">
+      <c r="S60" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T60" s="5" t="s">
@@ -5671,11 +5673,11 @@
         <v>33</v>
       </c>
       <c r="P61" s="5"/>
-      <c r="Q61" s="24"/>
+      <c r="Q61" s="23"/>
       <c r="R61" s="4">
         <v>2</v>
       </c>
-      <c r="S61" s="25" t="s">
+      <c r="S61" s="24" t="s">
         <v>33</v>
       </c>
       <c r="T61" s="5" t="s">
@@ -5718,84 +5720,84 @@
       <c r="AK61" s="14"/>
     </row>
     <row r="62" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="19" t="s">
+      <c r="B62" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C62" s="20">
+      <c r="C62" s="19">
         <v>17333</v>
       </c>
-      <c r="D62" s="20" t="s">
+      <c r="D62" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="E62" s="21">
+      <c r="E62" s="20">
         <v>45185</v>
       </c>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H62" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="I62" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="J62" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="K62" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="L62" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="M62" s="20"/>
-      <c r="N62" s="20"/>
-      <c r="O62" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="P62" s="20"/>
-      <c r="Q62" s="27"/>
-      <c r="R62" s="29">
+      <c r="F62" s="19"/>
+      <c r="G62" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H62" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I62" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J62" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K62" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L62" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="P62" s="19"/>
+      <c r="Q62" s="26"/>
+      <c r="R62" s="28">
         <v>8</v>
       </c>
-      <c r="S62" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="T62" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="U62" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="V62" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="W62" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="X62" s="20"/>
-      <c r="Y62" s="20"/>
-      <c r="Z62" s="20"/>
-      <c r="AA62" s="20"/>
-      <c r="AB62" s="20"/>
-      <c r="AC62" s="20"/>
-      <c r="AD62" s="20"/>
-      <c r="AE62" s="20"/>
-      <c r="AF62" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG62" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH62" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI62" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ62" s="20"/>
-      <c r="AK62" s="22"/>
+      <c r="S62" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="T62" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="U62" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="V62" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="W62" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="X62" s="19"/>
+      <c r="Y62" s="19"/>
+      <c r="Z62" s="19"/>
+      <c r="AA62" s="19"/>
+      <c r="AB62" s="19"/>
+      <c r="AC62" s="19"/>
+      <c r="AD62" s="19"/>
+      <c r="AE62" s="19"/>
+      <c r="AF62" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG62" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH62" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI62" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ62" s="19"/>
+      <c r="AK62" s="21"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:AK62">
